--- a/クリックポスト発送情報/20200805173111/英子日本发货表格8.4.xlsx
+++ b/クリックポスト発送情報/20200805173111/英子日本发货表格8.4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -190,6 +190,22 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628553424472</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628553424461</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628553424450</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628553424446</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -198,7 +214,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -319,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -392,13 +408,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,8 +1031,8 @@
   <dimension ref="A1:FY257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1388,7 +1407,9 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="27" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -1463,7 +1484,9 @@
       <c r="I5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="27" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="18" t="s">
@@ -1488,7 +1511,9 @@
       <c r="I6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="26"/>
+      <c r="K6" s="27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="18" t="s">
@@ -1513,7 +1538,9 @@
       <c r="I7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="27" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="9" spans="1:181" ht="121.95" customHeight="1"/>
